--- a/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="170">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -222,6 +222,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">o3enterprise</t>
     </r>
@@ -462,7 +463,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">L'Applicativo gestisce solamente le sezioni obbligatorie</t>
+    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -476,6 +477,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Altro (specificare)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Applicativo solo cardiologico:  non gestisce esami di tipo 'test da sforzo'</t>
   </si>
   <si>
@@ -498,9 +502,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Molti campi opzionali, come Allergie, Confronto con precedenti esami eseguiti, Suggerimenti per il medico prescrittore, non sono gestiti dall'applicativo</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
   </si>
   <si>
@@ -508,7 +509,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il campo confidentialityCode è sempre valorizzato a N dall'applicativo.</t>
+    <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
@@ -518,7 +519,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo converte automaticamente tutti i caratteri del Codice Fiscale in maiuscoli</t>
+    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT7_KO</t>
@@ -535,9 +536,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo inserisce il tag &lt;addr&gt; solamenete se presenti le informazioni complete di comune e indirizzo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
   </si>
   <si>
@@ -567,9 +565,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L’applicativo riporta “M” per maschi, “F” per femmine e “UN” per qualunque altro valore, incluso il caso di valore nullo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT11_KO</t>
   </si>
   <si>
@@ -577,9 +572,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo non gestisce dati di Storia Clinica</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
   </si>
   <si>
@@ -587,9 +579,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo non gestisce le priorità</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
   </si>
   <si>
@@ -597,9 +586,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Se mancano i dati per popolare il tag 'inFulfilmentOf/order/id', l’applicativo omette l’intera sezione 'inFulfilmentOf'</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -607,9 +593,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene sempre espressa la tipologia d’esame</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
   </si>
   <si>
@@ -617,7 +600,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo genera il CDA solo dopo che è stato redatto il referto. La sezione Referto è sempre presente.</t>
+    <t xml:space="preserve">Campo obbligatorio</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -627,9 +610,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sezione Quesito Diagnostico mai presente</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
   </si>
   <si>
@@ -637,9 +617,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">La sezione Prestazioni è sempre presente</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
   </si>
   <si>
@@ -675,17 +652,11 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">L'applicativo non gestisce dati di Storia Clinica e non riporta la sezione del Quesito Diagnostico</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'applicativo gestisce referti firmati digitalmente, il valore è sempre "S"</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
@@ -708,25 +679,10 @@
     <t xml:space="preserve">Razionale di Applicabilità</t>
   </si>
   <si>
-    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo obbligatorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo valorizzato di default</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altro (specificare)</t>
   </si>
   <si>
     <t xml:space="preserve">TIPO DOCUMENTO</t>
@@ -927,6 +883,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1134,7 +1091,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1264,6 +1221,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1450,7 +1411,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1537,7 +1498,7 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2614,12 +2575,12 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2937,7 +2898,7 @@
       <c r="J10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32" t="s">
         <v>54</v>
@@ -2945,7 +2906,7 @@
       <c r="N10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="O10" s="34" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="32" t="s">
@@ -2957,13 +2918,13 @@
       <c r="R10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="S10" s="34" t="s">
         <v>57</v>
       </c>
       <c r="T10" s="32"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="36" t="s">
+      <c r="U10" s="35"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2998,7 +2959,7 @@
       <c r="J11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="32"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32" t="s">
         <v>54</v>
@@ -3006,7 +2967,7 @@
       <c r="N11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="O11" s="34" t="s">
         <v>56</v>
       </c>
       <c r="P11" s="32" t="s">
@@ -3018,13 +2979,13 @@
       <c r="R11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="34" t="s">
         <v>57</v>
       </c>
       <c r="T11" s="32"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36" t="s">
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3041,7 +3002,7 @@
       <c r="D12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="38" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="30"/>
@@ -3051,7 +3012,7 @@
       <c r="J12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
         <v>55</v>
@@ -3059,7 +3020,7 @@
       <c r="N12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O12" s="34" t="s">
         <v>65</v>
       </c>
       <c r="P12" s="32" t="s">
@@ -3071,13 +3032,13 @@
       <c r="R12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="34" t="s">
         <v>66</v>
       </c>
       <c r="T12" s="32"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="36" t="s">
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3094,7 +3055,7 @@
       <c r="D13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="38" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="30"/>
@@ -3104,7 +3065,7 @@
       <c r="J13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="33" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="32"/>
@@ -3116,9 +3077,9 @@
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="36" t="s">
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3135,7 +3096,7 @@
       <c r="D14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="30"/>
@@ -3145,10 +3106,12 @@
       <c r="J14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -3157,9 +3120,9 @@
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="36" t="s">
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3174,10 +3137,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="37" t="s">
         <v>75</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -3186,10 +3149,12 @@
       <c r="J15" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="32"/>
+      <c r="K15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>77</v>
+      </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
@@ -3198,9 +3163,9 @@
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="32"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="36" t="s">
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3215,10 +3180,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="37" t="s">
         <v>78</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31"/>
@@ -3227,8 +3192,8 @@
       <c r="J16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="32" t="s">
-        <v>79</v>
+      <c r="K16" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
@@ -3239,9 +3204,9 @@
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="36" t="s">
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3258,7 +3223,7 @@
       <c r="D17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="30"/>
@@ -3268,7 +3233,7 @@
       <c r="J17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="33" t="s">
         <v>82</v>
       </c>
       <c r="L17" s="32"/>
@@ -3280,9 +3245,9 @@
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="36" t="s">
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3299,7 +3264,7 @@
       <c r="D18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="38" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="30"/>
@@ -3309,7 +3274,7 @@
       <c r="J18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="33" t="s">
         <v>85</v>
       </c>
       <c r="L18" s="32"/>
@@ -3321,9 +3286,9 @@
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="36" t="s">
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3340,7 +3305,7 @@
       <c r="D19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="38" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="30"/>
@@ -3350,7 +3315,7 @@
       <c r="J19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="33" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="32"/>
@@ -3362,9 +3327,9 @@
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="36" t="s">
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3381,7 +3346,7 @@
       <c r="D20" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="38" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="30"/>
@@ -3391,8 +3356,8 @@
       <c r="J20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="32" t="s">
-        <v>90</v>
+      <c r="K20" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -3403,9 +3368,9 @@
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="36" t="s">
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3420,22 +3385,22 @@
         <v>48</v>
       </c>
       <c r="D21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="F21" s="30" t="n">
         <v>45330</v>
       </c>
       <c r="G21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="I21" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>95</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>54</v>
@@ -3449,7 +3414,7 @@
         <v>54</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>55</v>
@@ -3461,12 +3426,12 @@
         <v>54</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T21" s="32"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="36" t="s">
+      <c r="U21" s="35"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3481,10 +3446,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>99</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
@@ -3493,8 +3458,8 @@
       <c r="J22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>100</v>
+      <c r="K22" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -3505,9 +3470,9 @@
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="36" t="s">
+      <c r="U22" s="35"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3522,10 +3487,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -3534,8 +3499,8 @@
       <c r="J23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="32" t="s">
-        <v>103</v>
+      <c r="K23" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -3546,9 +3511,9 @@
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="36" t="s">
+      <c r="U23" s="35"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3563,10 +3528,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
@@ -3575,8 +3540,8 @@
       <c r="J24" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="32" t="s">
-        <v>106</v>
+      <c r="K24" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -3587,9 +3552,9 @@
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="36" t="s">
+      <c r="U24" s="35"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3604,10 +3569,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
@@ -3616,8 +3581,8 @@
       <c r="J25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="32" t="s">
-        <v>109</v>
+      <c r="K25" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
@@ -3628,9 +3593,9 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="36" t="s">
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3645,17 +3610,17 @@
         <v>48</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>106</v>
       </c>
       <c r="F26" s="30"/>
       <c r="J26" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="32" t="s">
-        <v>112</v>
+      <c r="K26" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
@@ -3666,9 +3631,9 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="36" t="s">
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3683,10 +3648,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
@@ -3695,8 +3660,8 @@
       <c r="J27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="32" t="s">
-        <v>115</v>
+      <c r="K27" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -3707,9 +3672,9 @@
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="36" t="s">
+      <c r="U27" s="35"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3724,10 +3689,10 @@
         <v>48</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>111</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
@@ -3736,8 +3701,8 @@
       <c r="J28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="32" t="s">
-        <v>118</v>
+      <c r="K28" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
@@ -3748,9 +3713,9 @@
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="36" t="s">
+      <c r="U28" s="35"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3765,10 +3730,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -3777,8 +3742,8 @@
       <c r="J29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="32" t="s">
-        <v>121</v>
+      <c r="K29" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
@@ -3789,9 +3754,9 @@
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="36" t="s">
+      <c r="U29" s="35"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3806,10 +3771,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
@@ -3818,8 +3783,8 @@
       <c r="J30" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="32" t="s">
-        <v>103</v>
+      <c r="K30" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
@@ -3830,9 +3795,9 @@
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="36" t="s">
+      <c r="U30" s="35"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3847,10 +3812,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>125</v>
+        <v>116</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
@@ -3859,8 +3824,8 @@
       <c r="J31" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="32" t="s">
-        <v>103</v>
+      <c r="K31" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
@@ -3871,9 +3836,9 @@
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="36" t="s">
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3888,10 +3853,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>127</v>
+        <v>118</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
@@ -3900,8 +3865,8 @@
       <c r="J32" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="32" t="s">
-        <v>103</v>
+      <c r="K32" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
@@ -3912,9 +3877,9 @@
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="36" t="s">
+      <c r="U32" s="35"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3929,10 +3894,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
@@ -3941,8 +3906,8 @@
       <c r="J33" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="32" t="s">
-        <v>103</v>
+      <c r="K33" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
@@ -3953,9 +3918,9 @@
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
       <c r="T33" s="32"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="36" t="s">
+      <c r="U33" s="35"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3970,10 +3935,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
@@ -3982,8 +3947,8 @@
       <c r="J34" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="32" t="s">
-        <v>132</v>
+      <c r="K34" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
@@ -3994,9 +3959,9 @@
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="36" t="s">
+      <c r="U34" s="35"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4011,10 +3976,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>134</v>
+        <v>124</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
@@ -4023,8 +3988,8 @@
       <c r="J35" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>135</v>
+      <c r="K35" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
@@ -4035,9 +4000,9 @@
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="36" t="s">
+      <c r="U35" s="35"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4052,22 +4017,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>45330</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J36" s="32" t="s">
         <v>54</v>
@@ -4082,9 +4047,9 @@
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="38" t="s">
+      <c r="U36" s="35"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="39" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8879,7 +8844,7 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M10:N36 P10:R36" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
@@ -8890,6 +8855,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J12:J20 J22:J36" type="list">
       <formula1>Summary!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K10:K20 K22:K35" type="list">
+      <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8912,7 +8881,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -8920,42 +8889,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8976,7 +8945,7 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
@@ -8995,162 +8964,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>446.447</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="18" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="B6" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="D6" s="44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B7" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D7" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="42" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
+      <c r="D8" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="42" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="B9" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
+      <c r="D9" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="42" t="n">
-        <v>446.447</v>
-      </c>
-      <c r="D4" s="43" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
+      <c r="B10" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="42" t="s">
+      <c r="D10" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="42" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="B11" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="D11" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10122,7 +10091,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10134,32 +10103,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="171">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -543,13 +543,16 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-08-02T10:15:58Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add12decbab99304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120204.4.4.2972b76ab4b5f08636055113c8e444ec81148dfaf892874a6d0c9a4c1a3f8c85.960cb02b31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">26/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-26T06:53:02Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9979bbc9fc0e303c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120204.4.4.2972b76ab4b5f08636055113c8e444ec81148dfaf892874a6d0c9a4c1a3f8c85.733efb14a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizzato dall’utente prima di firmare il referto: “Attenzione: anagrafica paziente incompleta! Il CDA2 del referto non può riportare tutte le informazioni del paziente.”</t>
@@ -1091,7 +1094,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1221,10 +1224,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2576,11 +2575,11 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2898,7 +2897,7 @@
       <c r="J10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32" t="s">
         <v>54</v>
@@ -2906,7 +2905,7 @@
       <c r="N10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="34" t="s">
+      <c r="O10" s="33" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="32" t="s">
@@ -2918,13 +2917,13 @@
       <c r="R10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="33" t="s">
         <v>57</v>
       </c>
       <c r="T10" s="32"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37" t="s">
+      <c r="U10" s="34"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2959,7 +2958,7 @@
       <c r="J11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32" t="s">
         <v>54</v>
@@ -2967,7 +2966,7 @@
       <c r="N11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="33" t="s">
         <v>56</v>
       </c>
       <c r="P11" s="32" t="s">
@@ -2979,13 +2978,13 @@
       <c r="R11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="33" t="s">
         <v>57</v>
       </c>
       <c r="T11" s="32"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37" t="s">
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3002,7 +3001,7 @@
       <c r="D12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="30"/>
@@ -3012,7 +3011,7 @@
       <c r="J12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32" t="s">
         <v>55</v>
@@ -3020,7 +3019,7 @@
       <c r="N12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="34" t="s">
+      <c r="O12" s="33" t="s">
         <v>65</v>
       </c>
       <c r="P12" s="32" t="s">
@@ -3032,13 +3031,13 @@
       <c r="R12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="33" t="s">
         <v>66</v>
       </c>
       <c r="T12" s="32"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37" t="s">
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3055,7 +3054,7 @@
       <c r="D13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="30"/>
@@ -3065,7 +3064,7 @@
       <c r="J13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="32"/>
@@ -3077,9 +3076,9 @@
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37" t="s">
+      <c r="U13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3096,7 +3095,7 @@
       <c r="D14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="30"/>
@@ -3106,7 +3105,7 @@
       <c r="J14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="32" t="s">
         <v>73</v>
       </c>
       <c r="L14" s="32" t="s">
@@ -3120,9 +3119,9 @@
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37" t="s">
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="36" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3139,7 +3138,7 @@
       <c r="D15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="30"/>
@@ -3149,7 +3148,7 @@
       <c r="J15" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="32" t="s">
         <v>73</v>
       </c>
       <c r="L15" s="32" t="s">
@@ -3163,9 +3162,9 @@
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
       <c r="T15" s="32"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37" t="s">
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="36" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3182,7 +3181,7 @@
       <c r="D16" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>79</v>
       </c>
       <c r="F16" s="30"/>
@@ -3192,7 +3191,7 @@
       <c r="J16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="32"/>
@@ -3204,9 +3203,9 @@
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
       <c r="T16" s="32"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37" t="s">
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="36" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3223,7 +3222,7 @@
       <c r="D17" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="30"/>
@@ -3233,7 +3232,7 @@
       <c r="J17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="32" t="s">
         <v>82</v>
       </c>
       <c r="L17" s="32"/>
@@ -3245,9 +3244,9 @@
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37" t="s">
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3264,7 +3263,7 @@
       <c r="D18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>84</v>
       </c>
       <c r="F18" s="30"/>
@@ -3274,7 +3273,7 @@
       <c r="J18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="32" t="s">
         <v>85</v>
       </c>
       <c r="L18" s="32"/>
@@ -3286,9 +3285,9 @@
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37" t="s">
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3305,7 +3304,7 @@
       <c r="D19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="30"/>
@@ -3315,7 +3314,7 @@
       <c r="J19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="32" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="32"/>
@@ -3327,9 +3326,9 @@
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="37" t="s">
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3346,7 +3345,7 @@
       <c r="D20" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="37" t="s">
         <v>89</v>
       </c>
       <c r="F20" s="30"/>
@@ -3356,7 +3355,7 @@
       <c r="J20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="32" t="s">
         <v>85</v>
       </c>
       <c r="L20" s="32"/>
@@ -3368,9 +3367,9 @@
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37" t="s">
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3387,20 +3386,20 @@
       <c r="D21" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="30" t="n">
-        <v>45330</v>
+      <c r="F21" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>54</v>
@@ -3408,13 +3407,13 @@
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21" s="32" t="s">
         <v>54</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>55</v>
@@ -3426,12 +3425,12 @@
         <v>54</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T21" s="32"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37" t="s">
+      <c r="U21" s="34"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3446,10 +3445,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="38" t="s">
         <v>98</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>99</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
@@ -3458,7 +3457,7 @@
       <c r="J22" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="32" t="s">
         <v>85</v>
       </c>
       <c r="L22" s="32"/>
@@ -3470,9 +3469,9 @@
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37" t="s">
+      <c r="U22" s="34"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3487,10 +3486,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="38" t="s">
         <v>100</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -3499,7 +3498,7 @@
       <c r="J23" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="32"/>
@@ -3511,9 +3510,9 @@
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="37" t="s">
+      <c r="U23" s="34"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3528,10 +3527,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="38" t="s">
         <v>102</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
@@ -3540,7 +3539,7 @@
       <c r="J24" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L24" s="32"/>
@@ -3552,9 +3551,9 @@
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37" t="s">
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3569,10 +3568,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="38" t="s">
         <v>104</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
@@ -3581,7 +3580,7 @@
       <c r="J25" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="32" t="s">
         <v>85</v>
       </c>
       <c r="L25" s="32"/>
@@ -3593,9 +3592,9 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="37" t="s">
+      <c r="U25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3610,16 +3609,16 @@
         <v>48</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="38" t="s">
         <v>106</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>107</v>
       </c>
       <c r="F26" s="30"/>
       <c r="J26" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="32" t="s">
         <v>85</v>
       </c>
       <c r="L26" s="32"/>
@@ -3631,9 +3630,9 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37" t="s">
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3648,10 +3647,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="38" t="s">
         <v>108</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
@@ -3660,8 +3659,8 @@
       <c r="J27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="33" t="s">
-        <v>109</v>
+      <c r="K27" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
@@ -3672,9 +3671,9 @@
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="37" t="s">
+      <c r="U27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3689,10 +3688,10 @@
         <v>48</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="38" t="s">
         <v>111</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
@@ -3701,7 +3700,7 @@
       <c r="J28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L28" s="32"/>
@@ -3713,9 +3712,9 @@
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37" t="s">
+      <c r="U28" s="34"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3730,10 +3729,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="38" t="s">
         <v>113</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -3742,7 +3741,7 @@
       <c r="J29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="32" t="s">
         <v>85</v>
       </c>
       <c r="L29" s="32"/>
@@ -3754,9 +3753,9 @@
       <c r="R29" s="32"/>
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37" t="s">
+      <c r="U29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3771,10 +3770,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="38" t="s">
         <v>115</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>116</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
@@ -3783,7 +3782,7 @@
       <c r="J30" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L30" s="32"/>
@@ -3795,9 +3794,9 @@
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="37" t="s">
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3812,10 +3811,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="38" t="s">
         <v>117</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>118</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
@@ -3824,7 +3823,7 @@
       <c r="J31" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L31" s="32"/>
@@ -3836,9 +3835,9 @@
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="37" t="s">
+      <c r="U31" s="34"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3853,10 +3852,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="38" t="s">
         <v>119</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
@@ -3865,7 +3864,7 @@
       <c r="J32" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="32"/>
@@ -3877,9 +3876,9 @@
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37" t="s">
+      <c r="U32" s="34"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3894,10 +3893,10 @@
         <v>48</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="38" t="s">
         <v>121</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
@@ -3906,7 +3905,7 @@
       <c r="J33" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L33" s="32"/>
@@ -3918,9 +3917,9 @@
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
       <c r="T33" s="32"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="37" t="s">
+      <c r="U33" s="34"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3935,10 +3934,10 @@
         <v>48</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="38" t="s">
         <v>123</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
@@ -3947,7 +3946,7 @@
       <c r="J34" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="32" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="32"/>
@@ -3959,9 +3958,9 @@
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37" t="s">
+      <c r="U34" s="34"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3976,10 +3975,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="38" t="s">
         <v>125</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
@@ -3988,7 +3987,7 @@
       <c r="J35" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="32" t="s">
         <v>82</v>
       </c>
       <c r="L35" s="32"/>
@@ -4000,9 +3999,9 @@
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="37" t="s">
+      <c r="U35" s="34"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4017,22 +4016,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="38" t="s">
         <v>127</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>45330</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J36" s="32" t="s">
         <v>54</v>
@@ -4047,9 +4046,9 @@
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="39" t="s">
+      <c r="U36" s="34"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="38" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8889,7 +8888,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,7 +8898,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,12 +8908,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8964,162 +8963,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>138</v>
       </c>
+      <c r="G1" s="40" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>142</v>
       </c>
+      <c r="D2" s="42" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>145</v>
       </c>
+      <c r="D3" s="42" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="43" t="n">
+      <c r="A4" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="42" t="n">
         <v>446.447</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>147</v>
+      <c r="D4" s="43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="43" t="s">
+      <c r="A5" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>150</v>
       </c>
+      <c r="D5" s="42" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="B6" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>153</v>
       </c>
+      <c r="D6" s="43" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>156</v>
       </c>
+      <c r="D7" s="43" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="B8" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>158</v>
       </c>
+      <c r="D8" s="43" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="A9" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>161</v>
       </c>
+      <c r="D9" s="43" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>164</v>
       </c>
+      <c r="D10" s="42" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="B11" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>167</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10103,32 +10102,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111O3ENTERPRISESRL/o3enterprise/cis/4.20.0/report-checklist.xlsx
@@ -543,16 +543,16 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">26/08/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-26T06:53:02Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9979bbc9fc0e303c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120204.4.4.2972b76ab4b5f08636055113c8e444ec81148dfaf892874a6d0c9a4c1a3f8c85.733efb14a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">27/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-27T10:13:31Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50f72aeabed1f83f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120204.4.4.ac2e5aa0e2b288efd86ab8910b8211c2ca680dd8448e4067d1a2b92d75de4656.944d386c7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Visualizzato dall’utente prima di firmare il referto: “Attenzione: anagrafica paziente incompleta! Il CDA2 del referto non può riportare tutte le informazioni del paziente.”</t>
@@ -2575,11 +2575,11 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
